--- a/Dataout/OVC_DQRT_Feedback_CINDI.xlsx
+++ b/Dataout/OVC_DQRT_Feedback_CINDI.xlsx
@@ -880,7 +880,7 @@
         <v>45230</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
@@ -944,7 +944,7 @@
         <v>45260</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
@@ -1008,7 +1008,7 @@
         <v>45291</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
@@ -1072,7 +1072,7 @@
         <v>45230</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -1136,7 +1136,7 @@
         <v>45260</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J6" t="s">
         <v>42</v>
@@ -1200,7 +1200,7 @@
         <v>45291</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
@@ -1264,7 +1264,7 @@
         <v>45230</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J8" t="s">
         <v>42</v>
@@ -1326,7 +1326,7 @@
         <v>45260</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
@@ -1388,7 +1388,7 @@
         <v>45291</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
@@ -1450,7 +1450,7 @@
         <v>45230</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J11" t="s">
         <v>42</v>
@@ -1514,7 +1514,7 @@
         <v>45260</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J12" t="s">
         <v>42</v>
@@ -1578,7 +1578,7 @@
         <v>45291</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J13" t="s">
         <v>42</v>
@@ -1642,7 +1642,7 @@
         <v>45230</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J14" t="s">
         <v>42</v>
@@ -1706,7 +1706,7 @@
         <v>45260</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J15" t="s">
         <v>42</v>
@@ -1770,7 +1770,7 @@
         <v>45291</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J16" t="s">
         <v>42</v>
@@ -1834,7 +1834,7 @@
         <v>45230</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
@@ -1898,7 +1898,7 @@
         <v>45260</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J18" t="s">
         <v>42</v>
@@ -1962,7 +1962,7 @@
         <v>45291</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J19" t="s">
         <v>42</v>
@@ -2026,7 +2026,7 @@
         <v>45230</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J20" t="s">
         <v>42</v>
@@ -2090,7 +2090,7 @@
         <v>45260</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J21" t="s">
         <v>42</v>
@@ -2154,7 +2154,7 @@
         <v>45291</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J22" t="s">
         <v>42</v>
@@ -2218,7 +2218,7 @@
         <v>45230</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J23" t="s">
         <v>42</v>
@@ -2282,7 +2282,7 @@
         <v>45260</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J24" t="s">
         <v>42</v>
@@ -2346,7 +2346,7 @@
         <v>45291</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J25" t="s">
         <v>42</v>
@@ -2410,7 +2410,7 @@
         <v>45230</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2474,7 +2474,7 @@
         <v>45260</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2538,7 +2538,7 @@
         <v>45291</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J28" t="s">
         <v>42</v>
@@ -2602,7 +2602,7 @@
         <v>45230</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
@@ -2668,7 +2668,7 @@
         <v>45260</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
@@ -2734,7 +2734,7 @@
         <v>45291</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J31" t="s">
         <v>42</v>
@@ -2800,7 +2800,7 @@
         <v>45230</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J32" t="s">
         <v>42</v>
@@ -2866,7 +2866,7 @@
         <v>45260</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
@@ -2932,7 +2932,7 @@
         <v>45291</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J34" t="s">
         <v>42</v>
@@ -2998,7 +2998,7 @@
         <v>45230</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J35" t="s">
         <v>42</v>
@@ -3064,7 +3064,7 @@
         <v>45260</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
@@ -3130,7 +3130,7 @@
         <v>45291</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
@@ -3196,7 +3196,7 @@
         <v>45230</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J38" t="s">
         <v>42</v>
@@ -3262,7 +3262,7 @@
         <v>45260</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J39" t="s">
         <v>42</v>
@@ -3328,7 +3328,7 @@
         <v>45291</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J40" t="s">
         <v>42</v>
@@ -3394,7 +3394,7 @@
         <v>45230</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J41" t="s">
         <v>42</v>
@@ -3458,7 +3458,7 @@
         <v>45260</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J42" t="s">
         <v>42</v>
@@ -3522,7 +3522,7 @@
         <v>45291</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J43" t="s">
         <v>42</v>
@@ -3586,7 +3586,7 @@
         <v>45230</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J44" t="s">
         <v>42</v>
@@ -3650,7 +3650,7 @@
         <v>45260</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J45" t="s">
         <v>42</v>
@@ -3714,7 +3714,7 @@
         <v>45291</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J46" t="s">
         <v>42</v>
@@ -3778,7 +3778,7 @@
         <v>45230</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J47" t="s">
         <v>42</v>
@@ -3842,7 +3842,7 @@
         <v>45260</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J48" t="s">
         <v>42</v>
@@ -3906,7 +3906,7 @@
         <v>45291</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J49" t="s">
         <v>42</v>
@@ -3970,7 +3970,7 @@
         <v>45230</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J50" t="s">
         <v>42</v>
@@ -4034,7 +4034,7 @@
         <v>45260</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J51" t="s">
         <v>42</v>
@@ -4098,7 +4098,7 @@
         <v>45291</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J52" t="s">
         <v>42</v>
@@ -4162,7 +4162,7 @@
         <v>45230</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J53" t="s">
         <v>42</v>
@@ -4224,7 +4224,7 @@
         <v>45260</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J54" t="s">
         <v>42</v>
@@ -4286,7 +4286,7 @@
         <v>45291</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J55" t="s">
         <v>42</v>
@@ -4348,7 +4348,7 @@
         <v>45230</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J56" t="s">
         <v>42</v>
@@ -4412,7 +4412,7 @@
         <v>45260</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J57" t="s">
         <v>42</v>
@@ -4476,7 +4476,7 @@
         <v>45291</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J58" t="s">
         <v>42</v>
@@ -4540,7 +4540,7 @@
         <v>45230</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J59" t="s">
         <v>42</v>
@@ -4604,7 +4604,7 @@
         <v>45260</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J60" t="s">
         <v>42</v>
@@ -4668,7 +4668,7 @@
         <v>45291</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J61" t="s">
         <v>42</v>
@@ -4732,7 +4732,7 @@
         <v>45230</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J62" t="s">
         <v>42</v>
@@ -4794,7 +4794,7 @@
         <v>45260</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J63" t="s">
         <v>42</v>
@@ -4856,7 +4856,7 @@
         <v>45291</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J64" t="s">
         <v>42</v>
@@ -4918,7 +4918,7 @@
         <v>45230</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J65" t="s">
         <v>42</v>
@@ -4978,7 +4978,7 @@
         <v>45260</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J66" t="s">
         <v>42</v>
@@ -5038,7 +5038,7 @@
         <v>45291</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J67" t="s">
         <v>42</v>
@@ -5098,7 +5098,7 @@
         <v>45230</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J68" t="s">
         <v>42</v>
@@ -5158,7 +5158,7 @@
         <v>45260</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J69" t="s">
         <v>42</v>
@@ -5218,7 +5218,7 @@
         <v>45291</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J70" t="s">
         <v>42</v>
@@ -5278,7 +5278,7 @@
         <v>45230</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J71" t="s">
         <v>42</v>
@@ -5338,7 +5338,7 @@
         <v>45260</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J72" t="s">
         <v>42</v>
@@ -5398,7 +5398,7 @@
         <v>45291</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J73" t="s">
         <v>42</v>
@@ -5458,7 +5458,7 @@
         <v>45230</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J74" t="s">
         <v>42</v>
@@ -5522,7 +5522,7 @@
         <v>45260</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J75" t="s">
         <v>42</v>
@@ -5586,7 +5586,7 @@
         <v>45291</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J76" t="s">
         <v>42</v>
@@ -5650,7 +5650,7 @@
         <v>45230</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J77" t="s">
         <v>42</v>
@@ -5714,7 +5714,7 @@
         <v>45260</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J78" t="s">
         <v>42</v>
@@ -5778,7 +5778,7 @@
         <v>45291</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J79" t="s">
         <v>42</v>
@@ -5842,7 +5842,7 @@
         <v>45230</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J80" t="s">
         <v>42</v>
@@ -5904,7 +5904,7 @@
         <v>45260</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J81" t="s">
         <v>42</v>
@@ -5966,7 +5966,7 @@
         <v>45291</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J82" t="s">
         <v>42</v>
@@ -6028,7 +6028,7 @@
         <v>45230</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J83" t="s">
         <v>42</v>
@@ -6090,7 +6090,7 @@
         <v>45260</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J84" t="s">
         <v>42</v>
@@ -6152,7 +6152,7 @@
         <v>45291</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J85" t="s">
         <v>42</v>
@@ -6214,7 +6214,7 @@
         <v>45230</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J86" t="s">
         <v>42</v>
@@ -6276,7 +6276,7 @@
         <v>45260</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J87" t="s">
         <v>42</v>
@@ -6338,7 +6338,7 @@
         <v>45291</v>
       </c>
       <c r="I88" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J88" t="s">
         <v>42</v>
@@ -6400,7 +6400,7 @@
         <v>45230</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J89" t="s">
         <v>42</v>
@@ -6462,7 +6462,7 @@
         <v>45260</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J90" t="s">
         <v>42</v>
@@ -6524,7 +6524,7 @@
         <v>45291</v>
       </c>
       <c r="I91" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J91" t="s">
         <v>42</v>
@@ -6586,7 +6586,7 @@
         <v>45230</v>
       </c>
       <c r="I92" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J92" t="s">
         <v>42</v>
@@ -6648,7 +6648,7 @@
         <v>45260</v>
       </c>
       <c r="I93" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J93" t="s">
         <v>42</v>
@@ -6710,7 +6710,7 @@
         <v>45291</v>
       </c>
       <c r="I94" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J94" t="s">
         <v>42</v>
@@ -6772,7 +6772,7 @@
         <v>45230</v>
       </c>
       <c r="I95" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J95" t="s">
         <v>42</v>
@@ -6836,7 +6836,7 @@
         <v>45260</v>
       </c>
       <c r="I96" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J96" t="s">
         <v>42</v>
@@ -6900,7 +6900,7 @@
         <v>45291</v>
       </c>
       <c r="I97" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J97" t="s">
         <v>42</v>
@@ -6964,7 +6964,7 @@
         <v>45230</v>
       </c>
       <c r="I98" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J98" t="s">
         <v>42</v>
@@ -7028,7 +7028,7 @@
         <v>45260</v>
       </c>
       <c r="I99" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J99" t="s">
         <v>42</v>
@@ -7092,7 +7092,7 @@
         <v>45291</v>
       </c>
       <c r="I100" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J100" t="s">
         <v>42</v>
@@ -7156,7 +7156,7 @@
         <v>45230</v>
       </c>
       <c r="I101" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J101" t="s">
         <v>42</v>
@@ -7218,7 +7218,7 @@
         <v>45260</v>
       </c>
       <c r="I102" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J102" t="s">
         <v>42</v>
@@ -7280,7 +7280,7 @@
         <v>45291</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J103" t="s">
         <v>42</v>
@@ -7342,7 +7342,7 @@
         <v>45230</v>
       </c>
       <c r="I104" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J104" t="s">
         <v>42</v>
@@ -7406,7 +7406,7 @@
         <v>45260</v>
       </c>
       <c r="I105" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J105" t="s">
         <v>42</v>
@@ -7470,7 +7470,7 @@
         <v>45291</v>
       </c>
       <c r="I106" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J106" t="s">
         <v>42</v>
@@ -7534,7 +7534,7 @@
         <v>45230</v>
       </c>
       <c r="I107" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J107" t="s">
         <v>42</v>
@@ -7598,7 +7598,7 @@
         <v>45260</v>
       </c>
       <c r="I108" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J108" t="s">
         <v>42</v>
@@ -7662,7 +7662,7 @@
         <v>45291</v>
       </c>
       <c r="I109" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J109" t="s">
         <v>42</v>
@@ -7726,7 +7726,7 @@
         <v>45230</v>
       </c>
       <c r="I110" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J110" t="s">
         <v>42</v>
@@ -7788,7 +7788,7 @@
         <v>45260</v>
       </c>
       <c r="I111" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J111" t="s">
         <v>42</v>
@@ -7850,7 +7850,7 @@
         <v>45291</v>
       </c>
       <c r="I112" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J112" t="s">
         <v>42</v>
@@ -7912,7 +7912,7 @@
         <v>45230</v>
       </c>
       <c r="I113" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J113" t="s">
         <v>42</v>
@@ -7976,7 +7976,7 @@
         <v>45260</v>
       </c>
       <c r="I114" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J114" t="s">
         <v>42</v>
@@ -8040,7 +8040,7 @@
         <v>45291</v>
       </c>
       <c r="I115" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J115" t="s">
         <v>42</v>
@@ -8104,7 +8104,7 @@
         <v>45230</v>
       </c>
       <c r="I116" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J116" t="s">
         <v>42</v>
@@ -8168,7 +8168,7 @@
         <v>45260</v>
       </c>
       <c r="I117" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J117" t="s">
         <v>42</v>
@@ -8232,7 +8232,7 @@
         <v>45291</v>
       </c>
       <c r="I118" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J118" t="s">
         <v>42</v>
@@ -8296,7 +8296,7 @@
         <v>45230</v>
       </c>
       <c r="I119" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J119" t="s">
         <v>42</v>
@@ -8358,7 +8358,7 @@
         <v>45260</v>
       </c>
       <c r="I120" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J120" t="s">
         <v>42</v>
@@ -8420,7 +8420,7 @@
         <v>45291</v>
       </c>
       <c r="I121" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J121" t="s">
         <v>42</v>
@@ -8482,7 +8482,7 @@
         <v>45230</v>
       </c>
       <c r="I122" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J122" t="s">
         <v>42</v>
@@ -8546,7 +8546,7 @@
         <v>45260</v>
       </c>
       <c r="I123" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J123" t="s">
         <v>42</v>
@@ -8610,7 +8610,7 @@
         <v>45291</v>
       </c>
       <c r="I124" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J124" t="s">
         <v>42</v>
@@ -8674,7 +8674,7 @@
         <v>45230</v>
       </c>
       <c r="I125" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J125" t="s">
         <v>42</v>
@@ -8738,7 +8738,7 @@
         <v>45260</v>
       </c>
       <c r="I126" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J126" t="s">
         <v>42</v>
@@ -8802,7 +8802,7 @@
         <v>45291</v>
       </c>
       <c r="I127" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J127" t="s">
         <v>42</v>
@@ -8866,7 +8866,7 @@
         <v>45230</v>
       </c>
       <c r="I128" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J128" t="s">
         <v>42</v>
@@ -8928,7 +8928,7 @@
         <v>45260</v>
       </c>
       <c r="I129" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J129" t="s">
         <v>42</v>
@@ -8990,7 +8990,7 @@
         <v>45291</v>
       </c>
       <c r="I130" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J130" t="s">
         <v>42</v>
@@ -9052,7 +9052,7 @@
         <v>45230</v>
       </c>
       <c r="I131" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J131" t="s">
         <v>42</v>
@@ -9116,7 +9116,7 @@
         <v>45260</v>
       </c>
       <c r="I132" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J132" t="s">
         <v>42</v>
@@ -9180,7 +9180,7 @@
         <v>45291</v>
       </c>
       <c r="I133" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J133" t="s">
         <v>42</v>
@@ -9244,7 +9244,7 @@
         <v>45230</v>
       </c>
       <c r="I134" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J134" t="s">
         <v>42</v>
@@ -9308,7 +9308,7 @@
         <v>45260</v>
       </c>
       <c r="I135" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J135" t="s">
         <v>42</v>
@@ -9372,7 +9372,7 @@
         <v>45291</v>
       </c>
       <c r="I136" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J136" t="s">
         <v>42</v>
@@ -9436,7 +9436,7 @@
         <v>45230</v>
       </c>
       <c r="I137" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J137" t="s">
         <v>42</v>
@@ -9500,7 +9500,7 @@
         <v>45260</v>
       </c>
       <c r="I138" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J138" t="s">
         <v>42</v>
@@ -9564,7 +9564,7 @@
         <v>45291</v>
       </c>
       <c r="I139" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J139" t="s">
         <v>42</v>
@@ -9628,7 +9628,7 @@
         <v>45230</v>
       </c>
       <c r="I140" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J140" t="s">
         <v>42</v>
@@ -9692,7 +9692,7 @@
         <v>45260</v>
       </c>
       <c r="I141" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J141" t="s">
         <v>42</v>
@@ -9756,7 +9756,7 @@
         <v>45291</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J142" t="s">
         <v>42</v>
@@ -9820,7 +9820,7 @@
         <v>45230</v>
       </c>
       <c r="I143" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J143" t="s">
         <v>42</v>
@@ -9884,7 +9884,7 @@
         <v>45260</v>
       </c>
       <c r="I144" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J144" t="s">
         <v>42</v>
@@ -9948,7 +9948,7 @@
         <v>45291</v>
       </c>
       <c r="I145" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J145" t="s">
         <v>42</v>
@@ -10012,7 +10012,7 @@
         <v>45230</v>
       </c>
       <c r="I146" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J146" t="s">
         <v>42</v>
@@ -10076,7 +10076,7 @@
         <v>45260</v>
       </c>
       <c r="I147" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J147" t="s">
         <v>42</v>
@@ -10140,7 +10140,7 @@
         <v>45291</v>
       </c>
       <c r="I148" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J148" t="s">
         <v>42</v>
@@ -10204,7 +10204,7 @@
         <v>45230</v>
       </c>
       <c r="I149" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J149" t="s">
         <v>42</v>
@@ -10270,7 +10270,7 @@
         <v>45260</v>
       </c>
       <c r="I150" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J150" t="s">
         <v>42</v>
@@ -10336,7 +10336,7 @@
         <v>45291</v>
       </c>
       <c r="I151" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J151" t="s">
         <v>42</v>
@@ -10402,7 +10402,7 @@
         <v>45230</v>
       </c>
       <c r="I152" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J152" t="s">
         <v>42</v>
@@ -10468,7 +10468,7 @@
         <v>45260</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J153" t="s">
         <v>42</v>
@@ -10534,7 +10534,7 @@
         <v>45291</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J154" t="s">
         <v>42</v>
@@ -10600,7 +10600,7 @@
         <v>45230</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J155" t="s">
         <v>42</v>
@@ -10666,7 +10666,7 @@
         <v>45260</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J156" t="s">
         <v>42</v>
@@ -10732,7 +10732,7 @@
         <v>45291</v>
       </c>
       <c r="I157" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J157" t="s">
         <v>42</v>
@@ -10798,7 +10798,7 @@
         <v>45230</v>
       </c>
       <c r="I158" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J158" t="s">
         <v>42</v>
@@ -10864,7 +10864,7 @@
         <v>45260</v>
       </c>
       <c r="I159" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J159" t="s">
         <v>42</v>
@@ -10930,7 +10930,7 @@
         <v>45291</v>
       </c>
       <c r="I160" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J160" t="s">
         <v>42</v>
@@ -10996,7 +10996,7 @@
         <v>45230</v>
       </c>
       <c r="I161" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J161" t="s">
         <v>42</v>
@@ -11060,7 +11060,7 @@
         <v>45260</v>
       </c>
       <c r="I162" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J162" t="s">
         <v>42</v>
@@ -11124,7 +11124,7 @@
         <v>45291</v>
       </c>
       <c r="I163" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J163" t="s">
         <v>42</v>
@@ -11188,7 +11188,7 @@
         <v>45230</v>
       </c>
       <c r="I164" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J164" t="s">
         <v>42</v>
@@ -11252,7 +11252,7 @@
         <v>45260</v>
       </c>
       <c r="I165" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J165" t="s">
         <v>42</v>
@@ -11316,7 +11316,7 @@
         <v>45291</v>
       </c>
       <c r="I166" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J166" t="s">
         <v>42</v>
@@ -11380,7 +11380,7 @@
         <v>45230</v>
       </c>
       <c r="I167" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J167" t="s">
         <v>42</v>
@@ -11444,7 +11444,7 @@
         <v>45260</v>
       </c>
       <c r="I168" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J168" t="s">
         <v>42</v>
@@ -11508,7 +11508,7 @@
         <v>45291</v>
       </c>
       <c r="I169" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J169" t="s">
         <v>42</v>
@@ -11572,7 +11572,7 @@
         <v>45230</v>
       </c>
       <c r="I170" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J170" t="s">
         <v>42</v>
@@ -11636,7 +11636,7 @@
         <v>45260</v>
       </c>
       <c r="I171" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J171" t="s">
         <v>42</v>
@@ -11700,7 +11700,7 @@
         <v>45291</v>
       </c>
       <c r="I172" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J172" t="s">
         <v>42</v>
@@ -11764,7 +11764,7 @@
         <v>45230</v>
       </c>
       <c r="I173" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J173" t="s">
         <v>42</v>
@@ -11826,7 +11826,7 @@
         <v>45260</v>
       </c>
       <c r="I174" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J174" t="s">
         <v>42</v>
@@ -11888,7 +11888,7 @@
         <v>45291</v>
       </c>
       <c r="I175" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J175" t="s">
         <v>42</v>
@@ -11950,7 +11950,7 @@
         <v>45230</v>
       </c>
       <c r="I176" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J176" t="s">
         <v>42</v>
@@ -12014,7 +12014,7 @@
         <v>45260</v>
       </c>
       <c r="I177" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J177" t="s">
         <v>42</v>
@@ -12078,7 +12078,7 @@
         <v>45291</v>
       </c>
       <c r="I178" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J178" t="s">
         <v>42</v>
@@ -12142,7 +12142,7 @@
         <v>45230</v>
       </c>
       <c r="I179" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J179" t="s">
         <v>42</v>
@@ -12206,7 +12206,7 @@
         <v>45260</v>
       </c>
       <c r="I180" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J180" t="s">
         <v>42</v>
@@ -12270,7 +12270,7 @@
         <v>45291</v>
       </c>
       <c r="I181" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J181" t="s">
         <v>42</v>
@@ -12334,7 +12334,7 @@
         <v>45230</v>
       </c>
       <c r="I182" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J182" t="s">
         <v>42</v>
@@ -12396,7 +12396,7 @@
         <v>45260</v>
       </c>
       <c r="I183" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J183" t="s">
         <v>42</v>
@@ -12458,7 +12458,7 @@
         <v>45291</v>
       </c>
       <c r="I184" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J184" t="s">
         <v>42</v>
@@ -12520,7 +12520,7 @@
         <v>45230</v>
       </c>
       <c r="I185" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J185" t="s">
         <v>42</v>
@@ -12580,7 +12580,7 @@
         <v>45260</v>
       </c>
       <c r="I186" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J186" t="s">
         <v>42</v>
@@ -12640,7 +12640,7 @@
         <v>45291</v>
       </c>
       <c r="I187" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J187" t="s">
         <v>42</v>
@@ -12700,7 +12700,7 @@
         <v>45230</v>
       </c>
       <c r="I188" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J188" t="s">
         <v>42</v>
@@ -12760,7 +12760,7 @@
         <v>45260</v>
       </c>
       <c r="I189" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J189" t="s">
         <v>42</v>
@@ -12820,7 +12820,7 @@
         <v>45291</v>
       </c>
       <c r="I190" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J190" t="s">
         <v>42</v>
@@ -12880,7 +12880,7 @@
         <v>45230</v>
       </c>
       <c r="I191" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J191" t="s">
         <v>42</v>
@@ -12940,7 +12940,7 @@
         <v>45260</v>
       </c>
       <c r="I192" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J192" t="s">
         <v>42</v>
@@ -13000,7 +13000,7 @@
         <v>45291</v>
       </c>
       <c r="I193" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J193" t="s">
         <v>42</v>
@@ -13060,7 +13060,7 @@
         <v>45230</v>
       </c>
       <c r="I194" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J194" t="s">
         <v>42</v>
@@ -13124,7 +13124,7 @@
         <v>45260</v>
       </c>
       <c r="I195" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J195" t="s">
         <v>42</v>
@@ -13188,7 +13188,7 @@
         <v>45291</v>
       </c>
       <c r="I196" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J196" t="s">
         <v>42</v>
@@ -13252,7 +13252,7 @@
         <v>45230</v>
       </c>
       <c r="I197" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J197" t="s">
         <v>42</v>
@@ -13316,7 +13316,7 @@
         <v>45260</v>
       </c>
       <c r="I198" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J198" t="s">
         <v>42</v>
@@ -13380,7 +13380,7 @@
         <v>45291</v>
       </c>
       <c r="I199" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J199" t="s">
         <v>42</v>
@@ -13444,7 +13444,7 @@
         <v>45230</v>
       </c>
       <c r="I200" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J200" t="s">
         <v>42</v>
@@ -13506,7 +13506,7 @@
         <v>45260</v>
       </c>
       <c r="I201" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J201" t="s">
         <v>42</v>
@@ -13568,7 +13568,7 @@
         <v>45291</v>
       </c>
       <c r="I202" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J202" t="s">
         <v>42</v>
@@ -13630,7 +13630,7 @@
         <v>45230</v>
       </c>
       <c r="I203" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J203" t="s">
         <v>42</v>
@@ -13692,7 +13692,7 @@
         <v>45260</v>
       </c>
       <c r="I204" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J204" t="s">
         <v>42</v>
@@ -13754,7 +13754,7 @@
         <v>45291</v>
       </c>
       <c r="I205" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J205" t="s">
         <v>42</v>
@@ -13816,7 +13816,7 @@
         <v>45230</v>
       </c>
       <c r="I206" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J206" t="s">
         <v>42</v>
@@ -13878,7 +13878,7 @@
         <v>45260</v>
       </c>
       <c r="I207" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J207" t="s">
         <v>42</v>
@@ -13940,7 +13940,7 @@
         <v>45291</v>
       </c>
       <c r="I208" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J208" t="s">
         <v>42</v>
@@ -14002,7 +14002,7 @@
         <v>45230</v>
       </c>
       <c r="I209" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J209" t="s">
         <v>42</v>
@@ -14064,7 +14064,7 @@
         <v>45260</v>
       </c>
       <c r="I210" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J210" t="s">
         <v>42</v>
@@ -14126,7 +14126,7 @@
         <v>45291</v>
       </c>
       <c r="I211" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J211" t="s">
         <v>42</v>
@@ -14188,7 +14188,7 @@
         <v>45230</v>
       </c>
       <c r="I212" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J212" t="s">
         <v>42</v>
@@ -14250,7 +14250,7 @@
         <v>45260</v>
       </c>
       <c r="I213" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J213" t="s">
         <v>42</v>
@@ -14312,7 +14312,7 @@
         <v>45291</v>
       </c>
       <c r="I214" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J214" t="s">
         <v>42</v>
@@ -14374,7 +14374,7 @@
         <v>45230</v>
       </c>
       <c r="I215" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J215" t="s">
         <v>42</v>
@@ -14438,7 +14438,7 @@
         <v>45260</v>
       </c>
       <c r="I216" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J216" t="s">
         <v>42</v>
@@ -14502,7 +14502,7 @@
         <v>45291</v>
       </c>
       <c r="I217" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J217" t="s">
         <v>42</v>
@@ -14566,7 +14566,7 @@
         <v>45230</v>
       </c>
       <c r="I218" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J218" t="s">
         <v>42</v>
@@ -14630,7 +14630,7 @@
         <v>45260</v>
       </c>
       <c r="I219" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J219" t="s">
         <v>42</v>
@@ -14694,7 +14694,7 @@
         <v>45291</v>
       </c>
       <c r="I220" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J220" t="s">
         <v>42</v>
@@ -14758,7 +14758,7 @@
         <v>45230</v>
       </c>
       <c r="I221" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J221" t="s">
         <v>42</v>
@@ -14820,7 +14820,7 @@
         <v>45260</v>
       </c>
       <c r="I222" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J222" t="s">
         <v>42</v>
@@ -14882,7 +14882,7 @@
         <v>45291</v>
       </c>
       <c r="I223" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J223" t="s">
         <v>42</v>
@@ -14944,7 +14944,7 @@
         <v>45230</v>
       </c>
       <c r="I224" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J224" t="s">
         <v>42</v>
@@ -15006,7 +15006,7 @@
         <v>45260</v>
       </c>
       <c r="I225" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J225" t="s">
         <v>42</v>
@@ -15068,7 +15068,7 @@
         <v>45291</v>
       </c>
       <c r="I226" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J226" t="s">
         <v>42</v>
@@ -15130,7 +15130,7 @@
         <v>45230</v>
       </c>
       <c r="I227" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J227" t="s">
         <v>42</v>
@@ -15192,7 +15192,7 @@
         <v>45260</v>
       </c>
       <c r="I228" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J228" t="s">
         <v>42</v>
@@ -15254,7 +15254,7 @@
         <v>45291</v>
       </c>
       <c r="I229" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J229" t="s">
         <v>42</v>
@@ -15316,7 +15316,7 @@
         <v>45230</v>
       </c>
       <c r="I230" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J230" t="s">
         <v>42</v>
@@ -15378,7 +15378,7 @@
         <v>45260</v>
       </c>
       <c r="I231" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J231" t="s">
         <v>42</v>
@@ -15440,7 +15440,7 @@
         <v>45291</v>
       </c>
       <c r="I232" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J232" t="s">
         <v>42</v>
@@ -15502,7 +15502,7 @@
         <v>45230</v>
       </c>
       <c r="I233" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J233" t="s">
         <v>42</v>
@@ -15566,7 +15566,7 @@
         <v>45260</v>
       </c>
       <c r="I234" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J234" t="s">
         <v>42</v>
@@ -15630,7 +15630,7 @@
         <v>45291</v>
       </c>
       <c r="I235" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J235" t="s">
         <v>42</v>
@@ -15694,7 +15694,7 @@
         <v>45230</v>
       </c>
       <c r="I236" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J236" t="s">
         <v>42</v>
@@ -15758,7 +15758,7 @@
         <v>45260</v>
       </c>
       <c r="I237" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J237" t="s">
         <v>42</v>
@@ -15822,7 +15822,7 @@
         <v>45291</v>
       </c>
       <c r="I238" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J238" t="s">
         <v>42</v>
@@ -15886,7 +15886,7 @@
         <v>45230</v>
       </c>
       <c r="I239" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J239" t="s">
         <v>42</v>
@@ -15948,7 +15948,7 @@
         <v>45260</v>
       </c>
       <c r="I240" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J240" t="s">
         <v>42</v>
@@ -16010,7 +16010,7 @@
         <v>45291</v>
       </c>
       <c r="I241" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J241" t="s">
         <v>42</v>
@@ -16072,7 +16072,7 @@
         <v>45230</v>
       </c>
       <c r="I242" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J242" t="s">
         <v>42</v>
@@ -16136,7 +16136,7 @@
         <v>45260</v>
       </c>
       <c r="I243" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J243" t="s">
         <v>42</v>
@@ -16200,7 +16200,7 @@
         <v>45291</v>
       </c>
       <c r="I244" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J244" t="s">
         <v>42</v>
@@ -16264,7 +16264,7 @@
         <v>45230</v>
       </c>
       <c r="I245" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J245" t="s">
         <v>42</v>
@@ -16328,7 +16328,7 @@
         <v>45260</v>
       </c>
       <c r="I246" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J246" t="s">
         <v>42</v>
@@ -16392,7 +16392,7 @@
         <v>45291</v>
       </c>
       <c r="I247" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J247" t="s">
         <v>42</v>
@@ -16456,7 +16456,7 @@
         <v>45230</v>
       </c>
       <c r="I248" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J248" t="s">
         <v>42</v>
@@ -16518,7 +16518,7 @@
         <v>45260</v>
       </c>
       <c r="I249" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J249" t="s">
         <v>42</v>
@@ -16580,7 +16580,7 @@
         <v>45291</v>
       </c>
       <c r="I250" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J250" t="s">
         <v>42</v>
@@ -16642,7 +16642,7 @@
         <v>45230</v>
       </c>
       <c r="I251" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J251" t="s">
         <v>42</v>
@@ -16708,7 +16708,7 @@
         <v>45260</v>
       </c>
       <c r="I252" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J252" t="s">
         <v>42</v>
@@ -16774,7 +16774,7 @@
         <v>45291</v>
       </c>
       <c r="I253" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J253" t="s">
         <v>42</v>
@@ -16840,7 +16840,7 @@
         <v>45230</v>
       </c>
       <c r="I254" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J254" t="s">
         <v>42</v>
@@ -16906,7 +16906,7 @@
         <v>45260</v>
       </c>
       <c r="I255" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J255" t="s">
         <v>42</v>
@@ -16972,7 +16972,7 @@
         <v>45291</v>
       </c>
       <c r="I256" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J256" t="s">
         <v>42</v>
@@ -17038,7 +17038,7 @@
         <v>45230</v>
       </c>
       <c r="I257" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J257" t="s">
         <v>42</v>
@@ -17104,7 +17104,7 @@
         <v>45260</v>
       </c>
       <c r="I258" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J258" t="s">
         <v>42</v>
@@ -17170,7 +17170,7 @@
         <v>45291</v>
       </c>
       <c r="I259" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J259" t="s">
         <v>42</v>
@@ -17236,7 +17236,7 @@
         <v>45230</v>
       </c>
       <c r="I260" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J260" t="s">
         <v>42</v>
@@ -17302,7 +17302,7 @@
         <v>45260</v>
       </c>
       <c r="I261" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J261" t="s">
         <v>42</v>
@@ -17368,7 +17368,7 @@
         <v>45291</v>
       </c>
       <c r="I262" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J262" t="s">
         <v>42</v>
@@ -17434,7 +17434,7 @@
         <v>45230</v>
       </c>
       <c r="I263" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J263" t="s">
         <v>42</v>
@@ -17498,7 +17498,7 @@
         <v>45260</v>
       </c>
       <c r="I264" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J264" t="s">
         <v>42</v>
@@ -17562,7 +17562,7 @@
         <v>45291</v>
       </c>
       <c r="I265" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J265" t="s">
         <v>42</v>
@@ -17626,7 +17626,7 @@
         <v>45230</v>
       </c>
       <c r="I266" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J266" t="s">
         <v>42</v>
@@ -17690,7 +17690,7 @@
         <v>45260</v>
       </c>
       <c r="I267" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J267" t="s">
         <v>42</v>
@@ -17754,7 +17754,7 @@
         <v>45291</v>
       </c>
       <c r="I268" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J268" t="s">
         <v>42</v>
@@ -17818,7 +17818,7 @@
         <v>45230</v>
       </c>
       <c r="I269" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J269" t="s">
         <v>42</v>
@@ -17884,7 +17884,7 @@
         <v>45260</v>
       </c>
       <c r="I270" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J270" t="s">
         <v>42</v>
@@ -17950,7 +17950,7 @@
         <v>45291</v>
       </c>
       <c r="I271" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J271" t="s">
         <v>42</v>
@@ -18016,7 +18016,7 @@
         <v>45230</v>
       </c>
       <c r="I272" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J272" t="s">
         <v>42</v>
@@ -18082,7 +18082,7 @@
         <v>45260</v>
       </c>
       <c r="I273" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J273" t="s">
         <v>42</v>
@@ -18148,7 +18148,7 @@
         <v>45291</v>
       </c>
       <c r="I274" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J274" t="s">
         <v>42</v>
@@ -18214,7 +18214,7 @@
         <v>45230</v>
       </c>
       <c r="I275" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J275" t="s">
         <v>42</v>
@@ -18280,7 +18280,7 @@
         <v>45260</v>
       </c>
       <c r="I276" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J276" t="s">
         <v>42</v>
@@ -18346,7 +18346,7 @@
         <v>45291</v>
       </c>
       <c r="I277" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J277" t="s">
         <v>42</v>
@@ -18412,7 +18412,7 @@
         <v>45230</v>
       </c>
       <c r="I278" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J278" t="s">
         <v>42</v>
@@ -18478,7 +18478,7 @@
         <v>45260</v>
       </c>
       <c r="I279" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J279" t="s">
         <v>42</v>
@@ -18544,7 +18544,7 @@
         <v>45291</v>
       </c>
       <c r="I280" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J280" t="s">
         <v>42</v>
@@ -18610,7 +18610,7 @@
         <v>45230</v>
       </c>
       <c r="I281" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J281" t="s">
         <v>42</v>
@@ -18674,7 +18674,7 @@
         <v>45260</v>
       </c>
       <c r="I282" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J282" t="s">
         <v>42</v>
@@ -18738,7 +18738,7 @@
         <v>45291</v>
       </c>
       <c r="I283" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J283" t="s">
         <v>42</v>
@@ -18802,7 +18802,7 @@
         <v>45230</v>
       </c>
       <c r="I284" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J284" t="s">
         <v>42</v>
@@ -18866,7 +18866,7 @@
         <v>45260</v>
       </c>
       <c r="I285" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J285" t="s">
         <v>42</v>
@@ -18930,7 +18930,7 @@
         <v>45291</v>
       </c>
       <c r="I286" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J286" t="s">
         <v>42</v>
@@ -18994,7 +18994,7 @@
         <v>45230</v>
       </c>
       <c r="I287" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J287" t="s">
         <v>42</v>
@@ -19058,7 +19058,7 @@
         <v>45260</v>
       </c>
       <c r="I288" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J288" t="s">
         <v>42</v>
@@ -19122,7 +19122,7 @@
         <v>45291</v>
       </c>
       <c r="I289" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J289" t="s">
         <v>42</v>
@@ -19186,7 +19186,7 @@
         <v>45230</v>
       </c>
       <c r="I290" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J290" t="s">
         <v>42</v>
@@ -19250,7 +19250,7 @@
         <v>45260</v>
       </c>
       <c r="I291" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J291" t="s">
         <v>42</v>
@@ -19314,7 +19314,7 @@
         <v>45291</v>
       </c>
       <c r="I292" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J292" t="s">
         <v>42</v>
@@ -19378,7 +19378,7 @@
         <v>45230</v>
       </c>
       <c r="I293" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J293" t="s">
         <v>42</v>
@@ -19440,7 +19440,7 @@
         <v>45260</v>
       </c>
       <c r="I294" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J294" t="s">
         <v>42</v>
@@ -19502,7 +19502,7 @@
         <v>45291</v>
       </c>
       <c r="I295" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J295" t="s">
         <v>42</v>
@@ -19564,7 +19564,7 @@
         <v>45230</v>
       </c>
       <c r="I296" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J296" t="s">
         <v>42</v>
@@ -19628,7 +19628,7 @@
         <v>45260</v>
       </c>
       <c r="I297" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J297" t="s">
         <v>42</v>
@@ -19692,7 +19692,7 @@
         <v>45291</v>
       </c>
       <c r="I298" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J298" t="s">
         <v>42</v>
@@ -19756,7 +19756,7 @@
         <v>45230</v>
       </c>
       <c r="I299" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J299" t="s">
         <v>42</v>
@@ -19820,7 +19820,7 @@
         <v>45260</v>
       </c>
       <c r="I300" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J300" t="s">
         <v>42</v>
@@ -19884,7 +19884,7 @@
         <v>45291</v>
       </c>
       <c r="I301" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J301" t="s">
         <v>42</v>
@@ -19948,7 +19948,7 @@
         <v>45230</v>
       </c>
       <c r="I302" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J302" t="s">
         <v>42</v>
@@ -20010,7 +20010,7 @@
         <v>45260</v>
       </c>
       <c r="I303" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J303" t="s">
         <v>42</v>
@@ -20072,7 +20072,7 @@
         <v>45291</v>
       </c>
       <c r="I304" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J304" t="s">
         <v>42</v>
@@ -20134,7 +20134,7 @@
         <v>45230</v>
       </c>
       <c r="I305" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J305" t="s">
         <v>42</v>
@@ -20194,7 +20194,7 @@
         <v>45260</v>
       </c>
       <c r="I306" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J306" t="s">
         <v>42</v>
@@ -20254,7 +20254,7 @@
         <v>45291</v>
       </c>
       <c r="I307" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J307" t="s">
         <v>42</v>
@@ -20314,7 +20314,7 @@
         <v>45230</v>
       </c>
       <c r="I308" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J308" t="s">
         <v>42</v>
@@ -20374,7 +20374,7 @@
         <v>45260</v>
       </c>
       <c r="I309" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J309" t="s">
         <v>42</v>
@@ -20434,7 +20434,7 @@
         <v>45291</v>
       </c>
       <c r="I310" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J310" t="s">
         <v>42</v>
@@ -20494,7 +20494,7 @@
         <v>45230</v>
       </c>
       <c r="I311" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J311" t="s">
         <v>42</v>
@@ -20554,7 +20554,7 @@
         <v>45260</v>
       </c>
       <c r="I312" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J312" t="s">
         <v>42</v>
@@ -20614,7 +20614,7 @@
         <v>45291</v>
       </c>
       <c r="I313" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J313" t="s">
         <v>42</v>
@@ -20674,7 +20674,7 @@
         <v>45230</v>
       </c>
       <c r="I314" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J314" t="s">
         <v>42</v>
@@ -20738,7 +20738,7 @@
         <v>45260</v>
       </c>
       <c r="I315" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J315" t="s">
         <v>42</v>
@@ -20802,7 +20802,7 @@
         <v>45291</v>
       </c>
       <c r="I316" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J316" t="s">
         <v>42</v>
@@ -20866,7 +20866,7 @@
         <v>45230</v>
       </c>
       <c r="I317" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J317" t="s">
         <v>42</v>
@@ -20930,7 +20930,7 @@
         <v>45260</v>
       </c>
       <c r="I318" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J318" t="s">
         <v>42</v>
@@ -20994,7 +20994,7 @@
         <v>45291</v>
       </c>
       <c r="I319" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J319" t="s">
         <v>42</v>
@@ -21058,7 +21058,7 @@
         <v>45230</v>
       </c>
       <c r="I320" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J320" t="s">
         <v>42</v>
@@ -21120,7 +21120,7 @@
         <v>45260</v>
       </c>
       <c r="I321" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J321" t="s">
         <v>42</v>
@@ -21182,7 +21182,7 @@
         <v>45291</v>
       </c>
       <c r="I322" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J322" t="s">
         <v>42</v>
@@ -21244,7 +21244,7 @@
         <v>45230</v>
       </c>
       <c r="I323" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J323" t="s">
         <v>42</v>
@@ -21306,7 +21306,7 @@
         <v>45260</v>
       </c>
       <c r="I324" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J324" t="s">
         <v>42</v>
@@ -21368,7 +21368,7 @@
         <v>45291</v>
       </c>
       <c r="I325" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J325" t="s">
         <v>42</v>
@@ -21430,7 +21430,7 @@
         <v>45230</v>
       </c>
       <c r="I326" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J326" t="s">
         <v>42</v>
@@ -21492,7 +21492,7 @@
         <v>45260</v>
       </c>
       <c r="I327" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J327" t="s">
         <v>42</v>
@@ -21554,7 +21554,7 @@
         <v>45291</v>
       </c>
       <c r="I328" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J328" t="s">
         <v>42</v>
@@ -21616,7 +21616,7 @@
         <v>45230</v>
       </c>
       <c r="I329" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J329" t="s">
         <v>42</v>
@@ -21678,7 +21678,7 @@
         <v>45260</v>
       </c>
       <c r="I330" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J330" t="s">
         <v>42</v>
@@ -21740,7 +21740,7 @@
         <v>45291</v>
       </c>
       <c r="I331" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J331" t="s">
         <v>42</v>
@@ -21802,7 +21802,7 @@
         <v>45230</v>
       </c>
       <c r="I332" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J332" t="s">
         <v>42</v>
@@ -21864,7 +21864,7 @@
         <v>45260</v>
       </c>
       <c r="I333" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J333" t="s">
         <v>42</v>
@@ -21926,7 +21926,7 @@
         <v>45291</v>
       </c>
       <c r="I334" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J334" t="s">
         <v>42</v>
@@ -21988,7 +21988,7 @@
         <v>45230</v>
       </c>
       <c r="I335" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J335" t="s">
         <v>42</v>
@@ -22052,7 +22052,7 @@
         <v>45260</v>
       </c>
       <c r="I336" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J336" t="s">
         <v>42</v>
@@ -22116,7 +22116,7 @@
         <v>45291</v>
       </c>
       <c r="I337" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J337" t="s">
         <v>42</v>
@@ -22180,7 +22180,7 @@
         <v>45230</v>
       </c>
       <c r="I338" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J338" t="s">
         <v>42</v>
@@ -22244,7 +22244,7 @@
         <v>45260</v>
       </c>
       <c r="I339" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J339" t="s">
         <v>42</v>
@@ -22308,7 +22308,7 @@
         <v>45291</v>
       </c>
       <c r="I340" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J340" t="s">
         <v>42</v>
@@ -22372,7 +22372,7 @@
         <v>45230</v>
       </c>
       <c r="I341" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J341" t="s">
         <v>42</v>
@@ -22434,7 +22434,7 @@
         <v>45260</v>
       </c>
       <c r="I342" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J342" t="s">
         <v>42</v>
@@ -22496,7 +22496,7 @@
         <v>45291</v>
       </c>
       <c r="I343" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J343" t="s">
         <v>42</v>
@@ -22558,7 +22558,7 @@
         <v>45230</v>
       </c>
       <c r="I344" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J344" t="s">
         <v>42</v>
@@ -22622,7 +22622,7 @@
         <v>45260</v>
       </c>
       <c r="I345" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J345" t="s">
         <v>42</v>
@@ -22686,7 +22686,7 @@
         <v>45291</v>
       </c>
       <c r="I346" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J346" t="s">
         <v>42</v>
@@ -22750,7 +22750,7 @@
         <v>45230</v>
       </c>
       <c r="I347" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J347" t="s">
         <v>42</v>
@@ -22814,7 +22814,7 @@
         <v>45260</v>
       </c>
       <c r="I348" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J348" t="s">
         <v>42</v>
@@ -22878,7 +22878,7 @@
         <v>45291</v>
       </c>
       <c r="I349" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J349" t="s">
         <v>42</v>
@@ -22942,7 +22942,7 @@
         <v>45230</v>
       </c>
       <c r="I350" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J350" t="s">
         <v>42</v>
@@ -23004,7 +23004,7 @@
         <v>45260</v>
       </c>
       <c r="I351" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J351" t="s">
         <v>42</v>
@@ -23066,7 +23066,7 @@
         <v>45291</v>
       </c>
       <c r="I352" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J352" t="s">
         <v>42</v>
@@ -23128,7 +23128,7 @@
         <v>45230</v>
       </c>
       <c r="I353" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J353" t="s">
         <v>42</v>
@@ -23192,7 +23192,7 @@
         <v>45260</v>
       </c>
       <c r="I354" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J354" t="s">
         <v>42</v>
@@ -23256,7 +23256,7 @@
         <v>45291</v>
       </c>
       <c r="I355" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J355" t="s">
         <v>42</v>
@@ -23320,7 +23320,7 @@
         <v>45230</v>
       </c>
       <c r="I356" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J356" t="s">
         <v>42</v>
@@ -23384,7 +23384,7 @@
         <v>45260</v>
       </c>
       <c r="I357" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J357" t="s">
         <v>42</v>
@@ -23448,7 +23448,7 @@
         <v>45291</v>
       </c>
       <c r="I358" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J358" t="s">
         <v>42</v>
@@ -23512,7 +23512,7 @@
         <v>45230</v>
       </c>
       <c r="I359" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J359" t="s">
         <v>42</v>
@@ -23574,7 +23574,7 @@
         <v>45260</v>
       </c>
       <c r="I360" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J360" t="s">
         <v>42</v>
@@ -23636,7 +23636,7 @@
         <v>45291</v>
       </c>
       <c r="I361" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J361" t="s">
         <v>42</v>
